--- a/MainTop/29.08.2024/макс10дней с 19.08.2024 по 29.08.2024/упаковка_wb.xlsx
+++ b/MainTop/29.08.2024/макс10дней с 19.08.2024 по 29.08.2024/упаковка_wb.xlsx
@@ -297,7 +297,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
